--- a/new_templates/Water_Balance_TimeSeries_Template_v2.xlsx
+++ b/new_templates/Water_Balance_TimeSeries_Template_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\Water-Balance-Application\new_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C6EAC-BF23-4922-872C-009F94220E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FEBA3F-5900-4453-83A6-6E3DF1035DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference Guide" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="330">
   <si>
     <t>Node ID</t>
   </si>
@@ -615,9 +615,6 @@
     <t>OLDTSF_NEW_TSF → OLDTSF_NEW_TSF_SEEPAGE</t>
   </si>
   <si>
-    <t>OLDTSF_NEW_TSF → OLDTSF_NT_RWD</t>
-  </si>
-  <si>
     <t>OLDTSF_NEW_TSF_RAINRUN → OLDTSF_NEW_TSF</t>
   </si>
   <si>
@@ -633,12 +630,6 @@
     <t>OLDTSF_NT_RWD → OLDTSF_NT_RWD</t>
   </si>
   <si>
-    <t>OLDTSF_NT_RWD → OLDTSF_NT_RWD_EVAP</t>
-  </si>
-  <si>
-    <t>OLDTSF_NT_RWD_RAIN → OLDTSF_NT_RWD</t>
-  </si>
-  <si>
     <t>OLDTSF_OFFICES → OLDTSF_OFF_CONSUMPTION</t>
   </si>
   <si>
@@ -657,9 +648,6 @@
     <t>OLDTSF_OLD_TSF → OLDTSF_OLD_TSF_SEEPAGE</t>
   </si>
   <si>
-    <t>OLDTSF_OLD_TSF → OLDTSF_TRTD</t>
-  </si>
-  <si>
     <t>OLDTSF_OLD_TSF_RAINRUN → OLDTSF_OLD_TSF</t>
   </si>
   <si>
@@ -675,9 +663,6 @@
     <t>OLDTSF_TRTD_RAIN → OLDTSF_TRTD</t>
   </si>
   <si>
-    <t>OLDTSF_NT_RWD → OLDTSF_NT_RWD_SPILL</t>
-  </si>
-  <si>
     <t>OLDTSF_TRTD → OLDTSF_TRTD_SPILL</t>
   </si>
   <si>
@@ -723,9 +708,6 @@
     <t>UG2PLANT_UG2P_RES → UG2PLANT_UG2P_OFF</t>
   </si>
   <si>
-    <t>UG2PLANT_UG2P_RIVERS → UG2PLANT_CPRWSD1</t>
-  </si>
-  <si>
     <t>UG2PLANT_UG2P_SOFT → UG2PLANT_UG2P_RES</t>
   </si>
   <si>
@@ -906,15 +888,6 @@
     <t>MERPLANT_MPGWA_BOREHOLES → MERPLANT_MERP_SOFT</t>
   </si>
   <si>
-    <t>MERPLANT_MPRWSD1 → MERPLANT_MERP_PLANT</t>
-  </si>
-  <si>
-    <t>MERPLANT_MPRWSD1 → OLDTSF_TRTD</t>
-  </si>
-  <si>
-    <t>MERPLANT_MPRWSD1_RIVERS → MERPLANT_MPRWSD1</t>
-  </si>
-  <si>
     <t>MERPLANT_MPSWD12 → MERPLANT_MERP_PLANT</t>
   </si>
   <si>
@@ -1024,13 +997,61 @@
   </si>
   <si>
     <t>SPCD1 → JUNCTION_129_1140_1242</t>
+  </si>
+  <si>
+    <t>STOCKPILE_AREA(RUNOFF) → SPCD1</t>
+  </si>
+  <si>
+    <t>OLDTSF_OLD_TSF → OLDTSF_TRTD(Drainage)</t>
+  </si>
+  <si>
+    <t>OLDTSF_OLD_TSF → OLDTSF_TRTD(Return)</t>
+  </si>
+  <si>
+    <t>OLDTSF_NEW_TSF → OLDTSF_NT_RWD(Return)</t>
+  </si>
+  <si>
+    <t>OLDTSF_NEW_TSF → OLDTSF_NT_RWD(Drainage)</t>
+  </si>
+  <si>
+    <t>OLDTSF_NT_RWD → OLDTSF_EVAP</t>
+  </si>
+  <si>
+    <t>OLDTSF_NT_RWD → OLDTSF_SPILL</t>
+  </si>
+  <si>
+    <t>NEW_TSF_RAINRUN → NEW_TSF_NT_RWD</t>
+  </si>
+  <si>
+    <t>UG2PLANT_UG2P_DWARSRIVIER → UG2PLANT_CPRWSD1</t>
+  </si>
+  <si>
+    <t>UG2PLANT_UG2P_KLEINDWARS → UG2PLANT_CPRWSD1</t>
+  </si>
+  <si>
+    <t>UG2PLANT_UG2PCD1 → UG2PLANT_UG2PCD1_DUST</t>
+  </si>
+  <si>
+    <t>MERPLANT_KLEINDWARS → MERPLANT_MPRWSD1</t>
+  </si>
+  <si>
+    <t>MERPLANT_DWARSRIVIER → MERPLANT_MPRWSD1</t>
+  </si>
+  <si>
+    <t>MERPLANT_MERP_PLANT →  MERPLANT_MPRWSD12</t>
+  </si>
+  <si>
+    <t>MERPLANT_MPRWSD1 →  MERPLANT</t>
+  </si>
+  <si>
+    <t>OLDTSF_TRTD → MRP_MPRWSD1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,6 +1067,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -1078,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1087,6 +1122,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2716,41 +2755,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="32" customWidth="1"/>
-    <col min="10" max="10" width="41" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" customWidth="1"/>
+    <col min="7" max="7" width="49.5546875" customWidth="1"/>
+    <col min="8" max="9" width="44.44140625" customWidth="1"/>
+    <col min="10" max="10" width="42.77734375" customWidth="1"/>
+    <col min="11" max="11" width="44.88671875" customWidth="1"/>
+    <col min="12" max="12" width="37" customWidth="1"/>
+    <col min="13" max="13" width="39.5546875" customWidth="1"/>
+    <col min="14" max="14" width="33.109375" customWidth="1"/>
+    <col min="15" max="15" width="33.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -2776,18 +2824,80 @@
         <v>185</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>188</v>
+      <c r="M3" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>283639</v>
+      </c>
+      <c r="E4">
+        <v>68</v>
+      </c>
+      <c r="F4">
+        <v>35460</v>
+      </c>
+      <c r="G4">
+        <v>2943653</v>
+      </c>
+      <c r="H4">
+        <v>1488</v>
+      </c>
+      <c r="I4">
+        <v>2486143</v>
+      </c>
+      <c r="J4">
+        <v>5953</v>
+      </c>
+      <c r="K4">
+        <v>39875</v>
+      </c>
+      <c r="L4">
+        <v>105786</v>
+      </c>
+      <c r="M4">
+        <v>26593</v>
+      </c>
+      <c r="O4">
+        <v>5836</v>
+      </c>
+      <c r="P4">
+        <v>61866</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2795,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,49 +2916,46 @@
     <col min="1" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="44.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1"/>
-    <col min="6" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="36" customWidth="1"/>
-    <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="38" customWidth="1"/>
-    <col min="12" max="12" width="45" customWidth="1"/>
-    <col min="13" max="13" width="41" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="15" width="41" customWidth="1"/>
-    <col min="16" max="16" width="30" customWidth="1"/>
-    <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="19" width="32" customWidth="1"/>
-    <col min="20" max="20" width="37" customWidth="1"/>
-    <col min="21" max="21" width="33" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="46.44140625" customWidth="1"/>
+    <col min="10" max="11" width="41" customWidth="1"/>
+    <col min="12" max="12" width="38.5546875" customWidth="1"/>
+    <col min="13" max="13" width="46.109375" customWidth="1"/>
+    <col min="14" max="14" width="31.5546875" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="32" customWidth="1"/>
+    <col min="17" max="17" width="34.77734375" customWidth="1"/>
+    <col min="18" max="18" width="31.44140625" customWidth="1"/>
+    <col min="19" max="19" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -2859,7 +2966,7 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>191</v>
@@ -2880,42 +2987,92 @@
         <v>196</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>207</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>37781</v>
+      </c>
+      <c r="E4">
+        <v>11334</v>
+      </c>
+      <c r="F4">
+        <v>26447</v>
+      </c>
+      <c r="G4">
+        <v>-347</v>
+      </c>
+      <c r="H4">
+        <v>32779</v>
+      </c>
+      <c r="I4">
+        <v>559670</v>
+      </c>
+      <c r="J4">
+        <v>1324</v>
+      </c>
+      <c r="K4">
+        <v>508180</v>
+      </c>
+      <c r="L4">
+        <v>5298</v>
+      </c>
+      <c r="M4">
+        <v>48477</v>
+      </c>
+      <c r="N4">
+        <v>62270</v>
+      </c>
+      <c r="O4">
+        <v>-114</v>
+      </c>
+      <c r="P4">
+        <v>3227</v>
+      </c>
+      <c r="Q4">
+        <v>19757</v>
+      </c>
+      <c r="S4">
+        <v>2388207</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2923,37 +3080,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="13" width="45" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="39" customWidth="1"/>
-    <col min="17" max="17" width="41" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
-    <col min="19" max="19" width="45" customWidth="1"/>
-    <col min="20" max="20" width="41" customWidth="1"/>
-    <col min="21" max="21" width="45" customWidth="1"/>
-    <col min="22" max="22" width="37" customWidth="1"/>
-    <col min="23" max="23" width="42" customWidth="1"/>
-    <col min="24" max="24" width="43" customWidth="1"/>
-    <col min="25" max="25" width="42" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" customWidth="1"/>
+    <col min="5" max="5" width="57.21875" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1"/>
+    <col min="7" max="7" width="58.109375" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1"/>
+    <col min="9" max="9" width="52.77734375" customWidth="1"/>
+    <col min="10" max="10" width="51.77734375" customWidth="1"/>
+    <col min="11" max="11" width="52.109375" customWidth="1"/>
+    <col min="12" max="12" width="56.77734375" customWidth="1"/>
+    <col min="13" max="13" width="58.88671875" customWidth="1"/>
+    <col min="14" max="14" width="43.44140625" customWidth="1"/>
+    <col min="15" max="15" width="22.44140625" customWidth="1"/>
+    <col min="16" max="16" width="46.88671875" customWidth="1"/>
+    <col min="17" max="17" width="53.44140625" customWidth="1"/>
+    <col min="18" max="18" width="50.44140625" customWidth="1"/>
+    <col min="19" max="19" width="47.33203125" customWidth="1"/>
+    <col min="20" max="20" width="51.88671875" customWidth="1"/>
+    <col min="21" max="21" width="50.109375" customWidth="1"/>
+    <col min="22" max="22" width="52.6640625" customWidth="1"/>
+    <col min="23" max="23" width="45.88671875" customWidth="1"/>
+    <col min="24" max="24" width="49" customWidth="1"/>
+    <col min="25" max="26" width="48.88671875" customWidth="1"/>
+    <col min="27" max="27" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2979,8 +3142,10 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -2991,75 +3156,161 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>230</v>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>294595</v>
+      </c>
+      <c r="E4">
+        <v>54347</v>
+      </c>
+      <c r="F4">
+        <v>3889500</v>
+      </c>
+      <c r="G4">
+        <v>15489</v>
+      </c>
+      <c r="H4">
+        <v>1886</v>
+      </c>
+      <c r="I4">
+        <v>159715</v>
+      </c>
+      <c r="J4">
+        <v>3961796</v>
+      </c>
+      <c r="K4">
+        <v>497448</v>
+      </c>
+      <c r="L4">
+        <v>108847</v>
+      </c>
+      <c r="M4">
+        <v>11747</v>
+      </c>
+      <c r="N4">
+        <v>22227</v>
+      </c>
+      <c r="O4">
+        <v>25328</v>
+      </c>
+      <c r="P4">
+        <v>2694</v>
+      </c>
+      <c r="Q4">
+        <v>1548729</v>
+      </c>
+      <c r="R4">
+        <v>1548729</v>
+      </c>
+      <c r="T4">
+        <v>2717</v>
+      </c>
+      <c r="U4">
+        <v>1848</v>
+      </c>
+      <c r="V4">
+        <v>723</v>
+      </c>
+      <c r="W4">
+        <v>36</v>
+      </c>
+      <c r="X4">
+        <v>166</v>
+      </c>
+      <c r="Y4">
+        <v>37</v>
+      </c>
+      <c r="Z4">
+        <v>1548</v>
+      </c>
+      <c r="AA4">
+        <v>4888</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3067,36 +3318,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="33" customWidth="1"/>
-    <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="29" customWidth="1"/>
-    <col min="19" max="19" width="23" customWidth="1"/>
-    <col min="20" max="20" width="29" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" customWidth="1"/>
+    <col min="12" max="12" width="27.21875" customWidth="1"/>
+    <col min="13" max="13" width="31.44140625" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" customWidth="1"/>
+    <col min="16" max="16" width="28.44140625" customWidth="1"/>
+    <col min="17" max="17" width="28.21875" customWidth="1"/>
+    <col min="18" max="18" width="32.6640625" customWidth="1"/>
+    <col min="19" max="19" width="28.109375" customWidth="1"/>
+    <col min="20" max="20" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3129,55 +3381,117 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>248</v>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>114160</v>
+      </c>
+      <c r="E4">
+        <v>173634</v>
+      </c>
+      <c r="F4">
+        <v>17506</v>
+      </c>
+      <c r="G4">
+        <v>5166</v>
+      </c>
+      <c r="H4">
+        <v>109</v>
+      </c>
+      <c r="I4">
+        <v>190</v>
+      </c>
+      <c r="J4">
+        <v>180639</v>
+      </c>
+      <c r="K4">
+        <v>32536</v>
+      </c>
+      <c r="L4">
+        <v>75916</v>
+      </c>
+      <c r="M4">
+        <v>7337</v>
+      </c>
+      <c r="N4">
+        <v>108452</v>
+      </c>
+      <c r="O4">
+        <v>587705</v>
+      </c>
+      <c r="P4">
+        <v>1225</v>
+      </c>
+      <c r="Q4">
+        <v>108452</v>
+      </c>
+      <c r="R4">
+        <v>5708</v>
+      </c>
+      <c r="S4">
+        <v>92864</v>
+      </c>
+      <c r="T4">
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
@@ -3192,8 +3506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3223,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3258,61 +3572,61 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3390,40 +3704,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Z1"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="8" width="45" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="11" max="11" width="39" customWidth="1"/>
-    <col min="12" max="12" width="45" customWidth="1"/>
-    <col min="13" max="13" width="40" customWidth="1"/>
-    <col min="14" max="14" width="45" customWidth="1"/>
-    <col min="15" max="15" width="38" customWidth="1"/>
-    <col min="16" max="16" width="45" customWidth="1"/>
-    <col min="17" max="17" width="40" customWidth="1"/>
-    <col min="18" max="18" width="32" customWidth="1"/>
-    <col min="19" max="19" width="44" customWidth="1"/>
-    <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="37" customWidth="1"/>
-    <col min="22" max="23" width="42" customWidth="1"/>
-    <col min="24" max="24" width="43" customWidth="1"/>
-    <col min="25" max="25" width="42" customWidth="1"/>
-    <col min="26" max="26" width="25" customWidth="1"/>
+    <col min="4" max="4" width="60.21875" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
+    <col min="7" max="7" width="57.44140625" customWidth="1"/>
+    <col min="8" max="8" width="60.44140625" customWidth="1"/>
+    <col min="9" max="9" width="47.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
+    <col min="11" max="11" width="44.44140625" customWidth="1"/>
+    <col min="12" max="12" width="52.21875" customWidth="1"/>
+    <col min="13" max="13" width="46" customWidth="1"/>
+    <col min="14" max="14" width="51.21875" customWidth="1"/>
+    <col min="15" max="15" width="44.88671875" customWidth="1"/>
+    <col min="16" max="17" width="54.109375" customWidth="1"/>
+    <col min="18" max="18" width="47.6640625" customWidth="1"/>
+    <col min="19" max="19" width="56.21875" customWidth="1"/>
+    <col min="20" max="20" width="50.6640625" customWidth="1"/>
+    <col min="21" max="21" width="48.6640625" customWidth="1"/>
+    <col min="22" max="22" width="43.77734375" customWidth="1"/>
+    <col min="23" max="23" width="52.6640625" customWidth="1"/>
+    <col min="24" max="24" width="52.21875" customWidth="1"/>
+    <col min="25" max="25" width="50" customWidth="1"/>
+    <col min="26" max="26" width="48.44140625" customWidth="1"/>
+    <col min="27" max="27" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3450,8 +3767,9 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -3462,78 +3780,152 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>292</v>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>8076</v>
+      </c>
+      <c r="E4">
+        <v>18843</v>
+      </c>
+      <c r="F4">
+        <v>93447</v>
+      </c>
+      <c r="G4">
+        <v>-4839</v>
+      </c>
+      <c r="H4">
+        <v>8502</v>
+      </c>
+      <c r="I4">
+        <v>5497</v>
+      </c>
+      <c r="J4">
+        <v>2531867</v>
+      </c>
+      <c r="K4">
+        <v>26919</v>
+      </c>
+      <c r="L4">
+        <v>1417</v>
+      </c>
+      <c r="M4">
+        <v>26919</v>
+      </c>
+      <c r="N4">
+        <v>377</v>
+      </c>
+      <c r="O4">
+        <v>18466</v>
+      </c>
+      <c r="P4">
+        <v>28336</v>
+      </c>
+      <c r="R4">
+        <v>27155</v>
+      </c>
+      <c r="U4">
+        <v>5497</v>
+      </c>
+      <c r="V4">
+        <v>36</v>
+      </c>
+      <c r="W4">
+        <v>3457</v>
+      </c>
+      <c r="X4">
+        <v>268</v>
+      </c>
+      <c r="Z4">
+        <v>6952</v>
+      </c>
+      <c r="AA4">
+        <v>2414928</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3541,33 +3933,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="26" customWidth="1"/>
-    <col min="15" max="16" width="30" customWidth="1"/>
-    <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="25" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.44140625" customWidth="1"/>
+    <col min="12" max="12" width="35.6640625" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="15" width="34.6640625" customWidth="1"/>
+    <col min="16" max="16" width="35" customWidth="1"/>
+    <col min="17" max="17" width="31.6640625" customWidth="1"/>
+    <col min="18" max="18" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3598,49 +3994,99 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>308</v>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>28336</v>
+      </c>
+      <c r="E4">
+        <v>21371</v>
+      </c>
+      <c r="F4">
+        <v>10626</v>
+      </c>
+      <c r="G4">
+        <v>4481</v>
+      </c>
+      <c r="H4">
+        <v>180639</v>
+      </c>
+      <c r="I4">
+        <v>1832</v>
+      </c>
+      <c r="J4">
+        <v>8076</v>
+      </c>
+      <c r="K4">
+        <v>983</v>
+      </c>
+      <c r="L4">
+        <v>4236</v>
+      </c>
+      <c r="M4">
+        <v>212517</v>
+      </c>
+      <c r="N4">
+        <v>28336</v>
+      </c>
+      <c r="O4">
+        <v>1417</v>
+      </c>
+      <c r="R4">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3653,33 +4099,33 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="11" max="11" width="43" customWidth="1"/>
-    <col min="12" max="12" width="38" customWidth="1"/>
-    <col min="13" max="13" width="37" customWidth="1"/>
-    <col min="14" max="14" width="34" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="32" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
+    <col min="6" max="7" width="33.88671875" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" customWidth="1"/>
+    <col min="10" max="10" width="42.77734375" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" customWidth="1"/>
+    <col min="12" max="12" width="44.77734375" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
+    <col min="14" max="14" width="37.88671875" customWidth="1"/>
+    <col min="15" max="15" width="34.88671875" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+    <col min="17" max="17" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3696,8 +4142,9 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -3708,48 +4155,98 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>322</v>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>3014</v>
+      </c>
+      <c r="E4">
+        <v>19550</v>
+      </c>
+      <c r="F4">
+        <v>1193</v>
+      </c>
+      <c r="G4">
+        <v>4835</v>
+      </c>
+      <c r="H4">
+        <v>12435</v>
+      </c>
+      <c r="I4">
+        <v>484</v>
+      </c>
+      <c r="J4">
+        <v>631</v>
+      </c>
+      <c r="K4">
+        <v>15112</v>
+      </c>
+      <c r="L4">
+        <v>4534</v>
+      </c>
+      <c r="M4">
+        <v>10579</v>
+      </c>
+      <c r="N4">
+        <v>32371</v>
+      </c>
+      <c r="O4">
+        <v>3971</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new_templates/Water_Balance_TimeSeries_Template_v2.xlsx
+++ b/new_templates/Water_Balance_TimeSeries_Template_v2.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3588" yWindow="960" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3588" yWindow="960" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="6" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reference Guide" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Flows_NEWTSF" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Flows_OLDTSF" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Flows_UG2P" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Flows_UG2S" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Flows_UG2N" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Flows_MERP" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Flows_MERS" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Flows_STOCKPILE" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Flows_New TSF" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Flows_Old TSF" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Flows_UG2 Plant" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Flows_UG2 Main" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Flows_UG2 North" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Flows_Merensky Plant" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Flows_Merensky South" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Flows_Stockpile1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
